--- a/xlsx/MediaWiki_intext.xlsx
+++ b/xlsx/MediaWiki_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="591">
   <si>
     <t>MediaWiki</t>
   </si>
@@ -29,7 +29,7 @@
     <t>en-MediaWiki</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_MediaWiki</t>
+    <t>政策_政策_维基百科_MediaWiki</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E8%AE%BE%E8%AE%A1</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E9%96%8B%E7%99%BC</t>
   </si>
   <si>
-    <t>軟件開發</t>
+    <t>软件开发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E7%89%88%E6%9C%AC%E9%80%B1%E6%9C%9F</t>
   </si>
   <si>
-    <t>軟件版本週期</t>
+    <t>软件版本周期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%96%E7%A8%8B%E8%AF%AD%E8%A8%80</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>網站</t>
+    <t>网站</t>
   </si>
   <si>
     <t>https://www.mediawiki.org/wiki/</t>
@@ -149,9 +149,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基媒體基金會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%86%85%E5%AE%B9</t>
   </si>
   <si>
@@ -275,13 +272,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%B4%9B%E6%9C%97%E7%B5%B2%C2%B7%E5%B0%BC%E5%B7%B4%E7%88%BE-%E5%BE%B7%E4%BC%8D%E9%98%BF%E7%88%BE</t>
   </si>
   <si>
-    <t>弗洛朗絲·尼巴爾-德伍阿爾</t>
+    <t>弗洛朗丝·尼巴尔-德伍阿尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%80%A3%E7%B5%90</t>
   </si>
   <si>
-    <t>超連結</t>
+    <t>超连结</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/XML</t>
@@ -305,7 +302,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E4%B9%85%E9%80%A3%E7%B5%90</t>
   </si>
   <si>
-    <t>永久連結</t>
+    <t>永久连结</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTF-8</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E8%BE%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>Wiki農場</t>
+    <t>Wiki农场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WikiHow</t>
@@ -455,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Intellipedia</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A7%9D%E5%B3%B0%E5%BC%8F%E5%A4%A7%E5%B0%8F%E5%AF%AB</t>
   </si>
   <si>
-    <t>駝峰式大小寫</t>
+    <t>驼峰式大小写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%BB%E9%87%8F%E7%BA%A7%E6%A0%87%E8%AE%B0%E8%AF%AD%E8%A8%80</t>
@@ -791,21 +788,18 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E8%BB%9F%E4%BB%B6%E6%AF%94%E8%BC%83</t>
   </si>
   <si>
-    <t>Wiki軟件比較</t>
+    <t>Wiki软件比较</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>維基</t>
+    <t>维基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E7%BB%B4%E5%9F%BA</t>
   </si>
   <si>
@@ -845,25 +839,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%B6%89%E5%8F%8A%E5%88%A9%E7%9B%8A%E8%A1%9D%E7%AA%81%E7%9A%84%E7%B7%A8%E8%BC%AF</t>
   </si>
   <si>
-    <t>對維基百科涉及利益衝突的編輯</t>
+    <t>对维基百科涉及利益冲突的编辑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>對維基百科的批評</t>
+    <t>对维基百科的批评</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E5%88%AA%E9%99%A4%E4%B8%BB%E7%BE%A9%E5%92%8C%E4%BF%9D%E7%95%99%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>維基百科的刪除主義和保留主義</t>
+    <t>维基百科的删除主义和保留主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E6%80%A7%E5%88%A5%E5%81%8F%E8%AA%A4</t>
   </si>
   <si>
-    <t>維基百科的性別偏誤</t>
+    <t>维基百科的性别偏误</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Racial_bias_on_Wikipedia</t>
@@ -917,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%B2%E8%A3%81%E5%A7%94%E5%93%A1%E6%9C%83_(%E8%8B%B1%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91)</t>
   </si>
   <si>
-    <t>仲裁委員會 (英語維基百科)</t>
+    <t>仲裁委员会 (英语维基百科)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%96%E8%BE%91%E6%9D%BE</t>
@@ -935,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%84%9B%E5%8F%A4%E8%B9%9F</t>
   </si>
   <si>
-    <t>維基愛古蹟</t>
+    <t>维基爱古蹟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Art%2BFeminism</t>
@@ -959,13 +953,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E8%82%B2%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基教育基金會</t>
+    <t>维基教育基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>維基媒體運動</t>
+    <t>维基媒体运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E5%88%86%E4%BC%9A%E5%88%97%E8%A1%A8</t>
@@ -977,49 +971,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>德國維基媒體協會</t>
+    <t>德国维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>法國維基媒體協會</t>
+    <t>法国维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>義大利維基媒體協會</t>
+    <t>义大利维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>荷蘭維基媒體協會</t>
+    <t>荷兰维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>波蘭維基媒體協會</t>
+    <t>波兰维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>中華民國維基媒體協會</t>
+    <t>中华民国维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>香港維基媒體協會</t>
+    <t>香港维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>澳門維基媒體協會</t>
+    <t>澳门维基媒体协会</t>
   </si>
   <si>
     <t>https://ca.wikipedia.org/wiki/Amical_Wikimedia</t>
@@ -1037,55 +1031,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>元維基</t>
+    <t>元维基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%B8%E6%93%9A</t>
   </si>
   <si>
-    <t>維基數據</t>
+    <t>维基数据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%85%B1%E4%BA%AB%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>維基共享資源</t>
+    <t>维基共享资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>維基新聞</t>
+    <t>维基新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%AA%9E%E9%8C%84</t>
   </si>
   <si>
-    <t>維基語錄</t>
+    <t>维基语录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>維基物種</t>
+    <t>维基物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AD%A6%E9%99%A2</t>
@@ -1097,25 +1091,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>維基媒體國際會議</t>
+    <t>维基媒体国际会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA%E5%B9%B4%E6%9C%83</t>
   </si>
   <si>
-    <t>中文維基年會</t>
+    <t>中文维基年会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%B4%9B%E6%9C%97%E7%B5%B2%C2%B7%E5%BE%B7%E4%BC%8D%E9%98%BF%E7%88%BE</t>
   </si>
   <si>
-    <t>弗洛朗絲·德伍阿爾</t>
+    <t>弗洛朗丝·德伍阿尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Oscar_van_Dillen</t>
@@ -1127,13 +1121,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%C2%B7%E5%8A%A0%E5%BE%B7%E7%B4%8D</t>
   </si>
   <si>
-    <t>蘇·加德納</t>
+    <t>苏·加德纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E6%B5%B7%E7%88%BE%E6%9B%BC</t>
   </si>
   <si>
-    <t>詹姆斯·海爾曼</t>
+    <t>詹姆斯·海尔曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E7%91%9F%E7%90%B3%C2%B7%E9%A9%AC%E8%B5%AB</t>
@@ -1163,25 +1157,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>吉米·威爾斯</t>
+    <t>吉米·威尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%90%89%E6%8B%89%C2%B7%E8%B2%9D%E7%B5%B2%E8%95%BE%C2%B7%E6%96%AF%E5%A1%94%E6%9E%97</t>
   </si>
   <si>
-    <t>安吉拉·貝絲蕾·斯塔林</t>
+    <t>安吉拉·贝丝蕾·斯塔林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E6%98%AD</t>
   </si>
   <si>
-    <t>時昭</t>
+    <t>时昭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%B1%E7%91%9C%E7%9C%9F</t>
   </si>
   <si>
-    <t>許瑜真</t>
+    <t>许瑜真</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%88%E9%9C%86_(%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93)</t>
@@ -1193,13 +1187,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E9%90%98%E9%8A%98</t>
   </si>
   <si>
-    <t>王鐘銘</t>
+    <t>王钟铭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E7%A9%8E_(%E4%BD%9C%E5%AE%B6)</t>
   </si>
   <si>
-    <t>陳穎 (作家)</t>
+    <t>陈颖 (作家)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%BE%E6%96%AF%E6%B1%80%C2%B7%E7%BA%B3%E6%99%AE</t>
@@ -1211,13 +1205,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%A7%86%C2%B7%E8%AC%9D%E7%88%BE</t>
   </si>
   <si>
-    <t>提姆·謝爾</t>
+    <t>提姆·谢尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8F%AF%C2%B7%E6%96%AF%E8%AB%BE</t>
   </si>
   <si>
-    <t>麥可·斯諾</t>
+    <t>麦可·斯诺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mike_Godwin</t>
@@ -1235,25 +1229,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E7%88%BE%C2%B7%E5%93%88%E7%88%BE%E5%A1%94%E6%AF%94%E7%88%BE</t>
   </si>
   <si>
-    <t>巴塞爾·哈爾塔比爾</t>
+    <t>巴塞尔·哈尔塔比尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%88%E5%AE%89%E6%B2%BB</t>
   </si>
   <si>
-    <t>酈安治</t>
+    <t>郦安治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%BA%B7%E7%91%9E</t>
   </si>
   <si>
-    <t>麥康瑞</t>
+    <t>麦康瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%92%99%C2%B7%E6%99%AE%E7%88%BE%E8%A5%BF%E6%96%90</t>
   </si>
   <si>
-    <t>西蒙·普爾西斐</t>
+    <t>西蒙·普尔西斐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BC%A6%C2%B7%E6%96%AF%E6%B2%83%E8%8C%A8</t>
@@ -1265,19 +1259,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E9%9C%8D%E7%88%BE%C2%B7%E6%9F%AF%E6%96%AF%E7%99%BB%E6%9F%AF</t>
   </si>
   <si>
-    <t>伊霍爾·柯斯登柯</t>
+    <t>伊霍尔·柯斯登柯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E9%B3%B3</t>
   </si>
   <si>
-    <t>唐鳳</t>
+    <t>唐凤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%89%B9%C2%B7%E6%B2%83%E7%88%BE%E4%BB%80</t>
   </si>
   <si>
-    <t>加特·沃爾什</t>
+    <t>加特·沃尔什</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E7%B1%B3%C2%B7%E9%A9%AC%E8%92%82%E6%96%AF</t>
@@ -1337,7 +1331,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>維基百科歷史</t>
+    <t>维基百科历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Bomis</t>
@@ -1355,19 +1349,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%A8%99%E8%AA%8C</t>
   </si>
   <si>
-    <t>維基百科標誌</t>
+    <t>维基百科标志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>義大利語維基百科</t>
+    <t>义大利语维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8DSOPA%E5%92%8CPIPA%E6%8A%97%E8%AD%B0</t>
   </si>
   <si>
-    <t>反SOPA和PIPA抗議</t>
+    <t>反SOPA和PIPA抗议</t>
   </si>
   <si>
     <t>https://id.wikipedia.org/wiki/Pemadaman_Wikipedia_bahasa_Inggris</t>
@@ -1385,13 +1379,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E7%88%BE%E6%95%8D%E5%A5%A7%E7%89%B9%E8%BB%8D%E7%94%A8%E7%84%A1%E7%B7%9A%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>皮埃爾敍奧特軍用無線電台</t>
+    <t>皮埃尔敍奥特军用无线电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E4%B9%9F%E7%94%B3%E9%81%BA</t>
   </si>
   <si>
-    <t>維基百科也申遺</t>
+    <t>维基百科也申遗</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/1Lib1Ref</t>
@@ -1403,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9F%A5%E8%AD%98%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>維基百科知識引擎</t>
+    <t>维基百科知识引擎</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Litigation_involving_the_Wikimedia_Foundation</t>
@@ -1415,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83%E6%8E%A7%E5%91%8A%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80%E6%A1%88</t>
   </si>
   <si>
-    <t>維基媒體基金會控告美國國家安全局案</t>
+    <t>维基媒体基金会控告美国国家安全局案</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_Wikipedia_controversies</t>
@@ -1511,7 +1505,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%9C%8B%E5%AE%B6%E6%9D%9C%E9%A6%AC89417-6%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>俄羅斯國家杜馬89417-6法案</t>
+    <t>俄罗斯国家杜马89417-6法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4%E5%9C%9F%E8%80%B3%E5%85%B6%E5%B0%81%E9%94%81%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91%E4%BA%8B%E4%BB%B6</t>
@@ -1535,7 +1529,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E6%A1%86</t>
   </si>
   <si>
-    <t>資訊框</t>
+    <t>资讯框</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wikiwand</t>
@@ -1547,7 +1541,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%87%89%E7%94%A8%E7%A8%8B%E5%BC%8F</t>
   </si>
   <si>
-    <t>維基百科應用程式</t>
+    <t>维基百科应用程式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/QRpedia</t>
@@ -1607,13 +1601,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%A0%A1%E5%9C%92%E7%89%88</t>
   </si>
   <si>
-    <t>維基百科校園版</t>
+    <t>维基百科校园版</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%8E%83%E6%8F%8F%E5%99%A8</t>
   </si>
   <si>
-    <t>維基掃描器</t>
+    <t>维基扫描器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quadriga_(award)</t>
@@ -1667,7 +1661,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%9C%89%E9%97%9C%E7%9A%84%E9%9B%BB%E5%BD%B1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>和維基百科有關的電影列表</t>
+    <t>和维基百科有关的电影列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Academic_studies_about_Wikipedia</t>
@@ -1751,7 +1745,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%BD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>偽基百科</t>
+    <t>伪基百科</t>
   </si>
   <si>
     <t>https://it.wikipedia.org/wiki/Nonciclopedia</t>
@@ -1793,7 +1787,7 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E7%B6%B2%E7%AB%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>Wiki網站列表</t>
+    <t>Wiki网站列表</t>
   </si>
 </sst>
 </file>
@@ -2802,7 +2796,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G23" t="n">
         <v>5</v>
@@ -2828,10 +2822,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -2857,10 +2851,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>20</v>
@@ -2886,10 +2880,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -2915,10 +2909,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -2944,10 +2938,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -2973,10 +2967,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>7</v>
@@ -3002,10 +2996,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -3031,10 +3025,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
@@ -3060,10 +3054,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -3089,10 +3083,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3118,10 +3112,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -3147,10 +3141,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3176,10 +3170,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
@@ -3205,10 +3199,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>5</v>
@@ -3234,10 +3228,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>6</v>
@@ -3263,10 +3257,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3292,10 +3286,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3321,10 +3315,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3350,10 +3344,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -3379,10 +3373,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3408,10 +3402,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3437,10 +3431,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3466,10 +3460,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3495,10 +3489,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -3524,10 +3518,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>22</v>
@@ -3553,10 +3547,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3582,10 +3576,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3611,10 +3605,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3640,10 +3634,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3669,10 +3663,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3698,10 +3692,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3727,10 +3721,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3756,10 +3750,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3785,10 +3779,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3814,10 +3808,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3843,10 +3837,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3872,10 +3866,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3901,10 +3895,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3930,10 +3924,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3959,10 +3953,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3988,10 +3982,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4017,10 +4011,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -4046,10 +4040,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4075,10 +4069,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4104,10 +4098,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4133,10 +4127,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -4162,10 +4156,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4191,10 +4185,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4220,10 +4214,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -4249,10 +4243,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4278,10 +4272,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4307,10 +4301,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4336,10 +4330,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4365,10 +4359,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4394,10 +4388,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4423,10 +4417,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4452,10 +4446,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4481,10 +4475,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4510,10 +4504,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -4539,10 +4533,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4568,10 +4562,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4597,10 +4591,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4626,10 +4620,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>13</v>
@@ -4655,10 +4649,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>7</v>
@@ -4684,10 +4678,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4713,10 +4707,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4742,10 +4736,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4771,10 +4765,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4800,10 +4794,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4829,10 +4823,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4858,10 +4852,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4916,10 +4910,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4945,10 +4939,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>6</v>
@@ -4974,10 +4968,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5003,10 +4997,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>5</v>
@@ -5032,10 +5026,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5061,10 +5055,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5090,10 +5084,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5148,10 +5142,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>198</v>
+      </c>
+      <c r="F104" t="s">
         <v>199</v>
-      </c>
-      <c r="F104" t="s">
-        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5177,10 +5171,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>200</v>
+      </c>
+      <c r="F105" t="s">
         <v>201</v>
-      </c>
-      <c r="F105" t="s">
-        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5206,10 +5200,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>202</v>
+      </c>
+      <c r="F106" t="s">
         <v>203</v>
-      </c>
-      <c r="F106" t="s">
-        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5235,10 +5229,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>204</v>
+      </c>
+      <c r="F107" t="s">
         <v>205</v>
-      </c>
-      <c r="F107" t="s">
-        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5264,10 +5258,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>206</v>
+      </c>
+      <c r="F108" t="s">
         <v>207</v>
-      </c>
-      <c r="F108" t="s">
-        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -5293,10 +5287,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>208</v>
+      </c>
+      <c r="F109" t="s">
         <v>209</v>
-      </c>
-      <c r="F109" t="s">
-        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5322,10 +5316,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>210</v>
+      </c>
+      <c r="F110" t="s">
         <v>211</v>
-      </c>
-      <c r="F110" t="s">
-        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -5351,10 +5345,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>212</v>
+      </c>
+      <c r="F111" t="s">
         <v>213</v>
-      </c>
-      <c r="F111" t="s">
-        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5380,10 +5374,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" t="s">
         <v>215</v>
-      </c>
-      <c r="F112" t="s">
-        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5409,10 +5403,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>216</v>
+      </c>
+      <c r="F113" t="s">
         <v>217</v>
-      </c>
-      <c r="F113" t="s">
-        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5438,10 +5432,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>218</v>
+      </c>
+      <c r="F114" t="s">
         <v>219</v>
-      </c>
-      <c r="F114" t="s">
-        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5467,10 +5461,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>220</v>
+      </c>
+      <c r="F115" t="s">
         <v>221</v>
-      </c>
-      <c r="F115" t="s">
-        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5496,10 +5490,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>222</v>
+      </c>
+      <c r="F116" t="s">
         <v>223</v>
-      </c>
-      <c r="F116" t="s">
-        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5525,10 +5519,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>224</v>
+      </c>
+      <c r="F117" t="s">
         <v>225</v>
-      </c>
-      <c r="F117" t="s">
-        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5554,10 +5548,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>226</v>
+      </c>
+      <c r="F118" t="s">
         <v>227</v>
-      </c>
-      <c r="F118" t="s">
-        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5583,10 +5577,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>228</v>
+      </c>
+      <c r="F119" t="s">
         <v>229</v>
-      </c>
-      <c r="F119" t="s">
-        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5612,10 +5606,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>230</v>
+      </c>
+      <c r="F120" t="s">
         <v>231</v>
-      </c>
-      <c r="F120" t="s">
-        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5641,10 +5635,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>232</v>
+      </c>
+      <c r="F121" t="s">
         <v>233</v>
-      </c>
-      <c r="F121" t="s">
-        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5670,10 +5664,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>234</v>
+      </c>
+      <c r="F122" t="s">
         <v>235</v>
-      </c>
-      <c r="F122" t="s">
-        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5699,13 +5693,13 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>236</v>
+      </c>
+      <c r="F123" t="s">
         <v>237</v>
       </c>
-      <c r="F123" t="s">
-        <v>238</v>
-      </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -5728,13 +5722,13 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>238</v>
+      </c>
+      <c r="F124" t="s">
         <v>239</v>
       </c>
-      <c r="F124" t="s">
-        <v>240</v>
-      </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -5757,10 +5751,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>240</v>
+      </c>
+      <c r="F125" t="s">
         <v>241</v>
-      </c>
-      <c r="F125" t="s">
-        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5786,10 +5780,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>242</v>
+      </c>
+      <c r="F126" t="s">
         <v>243</v>
-      </c>
-      <c r="F126" t="s">
-        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5815,10 +5809,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>244</v>
+      </c>
+      <c r="F127" t="s">
         <v>245</v>
-      </c>
-      <c r="F127" t="s">
-        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5844,10 +5838,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>246</v>
+      </c>
+      <c r="F128" t="s">
         <v>247</v>
-      </c>
-      <c r="F128" t="s">
-        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5873,10 +5867,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>248</v>
+      </c>
+      <c r="F129" t="s">
         <v>249</v>
-      </c>
-      <c r="F129" t="s">
-        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5902,10 +5896,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>250</v>
+      </c>
+      <c r="F130" t="s">
         <v>251</v>
-      </c>
-      <c r="F130" t="s">
-        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5931,10 +5925,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>252</v>
+      </c>
+      <c r="F131" t="s">
         <v>253</v>
-      </c>
-      <c r="F131" t="s">
-        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5960,10 +5954,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>254</v>
+      </c>
+      <c r="F132" t="s">
         <v>255</v>
-      </c>
-      <c r="F132" t="s">
-        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>166</v>
@@ -5989,10 +5983,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>256</v>
+      </c>
+      <c r="F133" t="s">
         <v>257</v>
-      </c>
-      <c r="F133" t="s">
-        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6018,10 +6012,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>258</v>
+      </c>
+      <c r="F134" t="s">
         <v>259</v>
-      </c>
-      <c r="F134" t="s">
-        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>60</v>
@@ -6047,10 +6041,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>47</v>
       </c>
       <c r="G135" t="n">
         <v>21</v>
@@ -6076,10 +6070,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6105,10 +6099,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6134,10 +6128,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6163,10 +6157,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6192,10 +6186,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>5</v>
@@ -6221,10 +6215,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6250,10 +6244,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6279,10 +6273,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6308,10 +6302,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6337,10 +6331,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6366,10 +6360,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6395,10 +6389,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6424,10 +6418,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6453,10 +6447,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6482,10 +6476,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6511,10 +6505,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6540,10 +6534,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6569,10 +6563,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6598,10 +6592,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6627,10 +6621,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6656,10 +6650,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6685,10 +6679,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6714,10 +6708,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6743,10 +6737,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6772,10 +6766,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6801,10 +6795,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6830,10 +6824,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6859,10 +6853,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6888,10 +6882,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6917,10 +6911,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6946,10 +6940,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>3</v>
@@ -6975,10 +6969,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7004,10 +6998,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7033,10 +7027,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7062,10 +7056,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7091,10 +7085,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -7120,10 +7114,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7149,10 +7143,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7178,10 +7172,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -7207,10 +7201,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7236,10 +7230,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7265,10 +7259,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7294,10 +7288,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7323,10 +7317,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7352,10 +7346,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7381,10 +7375,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -7410,10 +7404,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7439,10 +7433,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7468,10 +7462,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7497,10 +7491,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7526,10 +7520,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7555,10 +7549,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7584,10 +7578,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7613,10 +7607,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7642,10 +7636,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7671,10 +7665,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7729,10 +7723,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7758,10 +7752,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7787,10 +7781,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7816,10 +7810,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7845,10 +7839,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7874,10 +7868,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7903,10 +7897,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7932,10 +7926,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7961,10 +7955,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7990,10 +7984,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8019,10 +8013,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8048,10 +8042,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8077,10 +8071,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8106,10 +8100,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8135,10 +8129,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8164,10 +8158,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8193,10 +8187,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8222,10 +8216,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8251,10 +8245,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8280,10 +8274,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8309,10 +8303,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8338,10 +8332,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8367,10 +8361,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8396,10 +8390,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8425,10 +8419,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8454,10 +8448,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8483,10 +8477,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8512,10 +8506,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8541,10 +8535,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8570,10 +8564,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8599,10 +8593,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8628,10 +8622,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8657,10 +8651,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8686,10 +8680,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8715,10 +8709,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8744,10 +8738,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8773,10 +8767,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8802,10 +8796,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8831,10 +8825,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8860,10 +8854,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8889,10 +8883,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8918,10 +8912,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8947,10 +8941,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -8976,10 +8970,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9005,10 +8999,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9034,10 +9028,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9063,10 +9057,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9092,10 +9086,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9121,10 +9115,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9150,10 +9144,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9179,10 +9173,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9208,10 +9202,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9237,10 +9231,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9266,10 +9260,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9295,10 +9289,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9324,10 +9318,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9353,10 +9347,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9382,10 +9376,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9411,10 +9405,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9440,10 +9434,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9469,10 +9463,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9498,10 +9492,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9527,10 +9521,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9556,10 +9550,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9585,10 +9579,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9614,10 +9608,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9643,10 +9637,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9672,10 +9666,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9701,10 +9695,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9730,10 +9724,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9759,10 +9753,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -9788,10 +9782,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9817,10 +9811,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -9846,10 +9840,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9875,10 +9869,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9904,10 +9898,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9933,10 +9927,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -9962,10 +9956,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9991,10 +9985,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10020,10 +10014,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10049,10 +10043,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10078,10 +10072,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10107,10 +10101,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10136,10 +10130,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10165,10 +10159,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F277" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10194,10 +10188,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F278" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10223,10 +10217,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F279" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10252,10 +10246,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F280" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10281,10 +10275,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F281" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10310,10 +10304,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F282" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -10339,10 +10333,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F283" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -10368,10 +10362,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F284" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -10397,10 +10391,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F285" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10426,10 +10420,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F286" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10455,10 +10449,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F287" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10484,10 +10478,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F288" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10513,10 +10507,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F289" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10542,10 +10536,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F290" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10571,10 +10565,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F291" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -10600,10 +10594,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>136</v>
+      </c>
+      <c r="F292" t="s">
         <v>137</v>
-      </c>
-      <c r="F292" t="s">
-        <v>138</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10629,10 +10623,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F293" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10658,10 +10652,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F294" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -10687,10 +10681,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F295" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10716,10 +10710,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F296" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -10745,10 +10739,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F297" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -10774,10 +10768,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F298" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -10803,10 +10797,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F299" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -10832,10 +10826,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F300" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10861,10 +10855,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F301" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10890,10 +10884,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F302" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
